--- a/Tables/model_comparison_variances.xlsx
+++ b/Tables/model_comparison_variances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\KUL\Master thesis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD82721-C3AA-47E3-B6FD-BD6ED89A2B75}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC6D293-3AE3-4FC8-851A-1B71BBF96F8E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3F4BA47B-D4A9-41CE-89CF-9DEE1DF6B58E}"/>
   </bookViews>
@@ -64,10 +64,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
+    <numFmt numFmtId="171" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -127,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -138,7 +140,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -158,6 +161,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,7 +480,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +509,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -516,25 +521,29 @@
       <c r="D2" s="1">
         <v>0.26180219999999998</v>
       </c>
-      <c r="E2" s="10">
-        <v>1266.575</v>
-      </c>
-      <c r="F2" s="10">
-        <v>690.16229999999996</v>
+      <c r="E2" s="11">
+        <v>1.266575E-3</v>
+      </c>
+      <c r="F2" s="19">
+        <v>6.9016230000000002E-4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="3">
+        <v>1.3386913223672301E-3</v>
+      </c>
+      <c r="F3" s="20">
+        <v>7.3499999999999998E-4</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
@@ -546,14 +555,17 @@
         <f t="shared" ref="D4:F4" si="0">ABS(D2-D3)</f>
         <v>0.26180219999999998</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7">
+        <f>ABS(E2-E3)</f>
+        <v>7.2116322367230022E-5</v>
+      </c>
       <c r="F4" s="7">
         <f t="shared" si="0"/>
-        <v>690.16229999999996</v>
+        <v>4.4837699999999959E-5</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -573,17 +585,21 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="10">
+        <v>3.3210111143561954E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.2800000000000001E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -596,21 +612,21 @@
         <v>5.0137340000000004</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="1"/>
-        <v>3.3639769999999999E-2</v>
+        <f>ABS(E5-E6)</f>
+        <v>4.2965885643804491E-4</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="1"/>
-        <v>1.2185339999999999E-2</v>
+        <v>6.1466000000000125E-4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Tables/model_comparison_variances.xlsx
+++ b/Tables/model_comparison_variances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\KUL\Master thesis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC6D293-3AE3-4FC8-851A-1B71BBF96F8E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A711F1E8-FD9B-45AC-89E3-8E946A744800}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3F4BA47B-D4A9-41CE-89CF-9DEE1DF6B58E}"/>
   </bookViews>
@@ -64,12 +64,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
+  <numFmts count="2">
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.000000000"/>
-    <numFmt numFmtId="171" formatCode="0.0000000"/>
+    <numFmt numFmtId="171" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -129,19 +126,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -161,8 +152,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,7 +475,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,124 +504,132 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="13">
         <v>0.17086000000000001</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="13">
         <v>0.26180219999999998</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="15">
         <v>1.266575E-3</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="15">
         <v>6.9016230000000002E-4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3">
+      <c r="C3" s="14">
+        <v>0.18285151213991993</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0.26441975235277537</v>
+      </c>
+      <c r="E3" s="16">
         <v>1.3386913223672301E-3</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="16">
         <v>7.3499999999999998E-4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <f>ABS(C2-C3)</f>
-        <v>0.17086000000000001</v>
-      </c>
-      <c r="D4" s="7">
+        <v>1.1991512139919919E-2</v>
+      </c>
+      <c r="D4" s="5">
         <f t="shared" ref="D4:F4" si="0">ABS(D2-D3)</f>
-        <v>0.26180219999999998</v>
-      </c>
-      <c r="E4" s="7">
+        <v>2.6175523527753874E-3</v>
+      </c>
+      <c r="E4" s="17">
         <f>ABS(E2-E3)</f>
         <v>7.2116322367230022E-5</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="17">
         <f t="shared" si="0"/>
         <v>4.4837699999999959E-5</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="13">
         <v>4.7072690000000001</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="13">
         <v>5.0137340000000004</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="15">
         <v>3.3639769999999999E-2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="18">
         <v>1.2185339999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="10">
+      <c r="C6" s="14">
+        <v>4.5602399335886421</v>
+      </c>
+      <c r="D6" s="14">
+        <v>4.9244855632738407</v>
+      </c>
+      <c r="E6" s="18">
         <v>3.3210111143561954E-2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="16">
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <f>ABS(C5-C6)</f>
-        <v>4.7072690000000001</v>
-      </c>
-      <c r="D7" s="4">
+        <v>0.14702906641135804</v>
+      </c>
+      <c r="D7" s="5">
         <f t="shared" ref="D7:F7" si="1">ABS(D5-D6)</f>
-        <v>5.0137340000000004</v>
-      </c>
-      <c r="E7" s="4">
+        <v>8.9248436726159674E-2</v>
+      </c>
+      <c r="E7" s="17">
         <f>ABS(E5-E6)</f>
         <v>4.2965885643804491E-4</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="17">
         <f t="shared" si="1"/>
         <v>6.1466000000000125E-4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
